--- a/PostgreSQL-Vlab.xlsx
+++ b/PostgreSQL-Vlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abdfd1c8397dbfe4/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_3C84870A98B9B3E6AD42778FDC2B1CEFA0C37392" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805BDA76-9696-4459-9D84-A9FB50DB861B}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_3C84870A98B9B3E6AD42778FDC2B1CEFA0C37392" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43852B3D-EE3F-49E3-95BF-9A0564100768}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>URL</t>
   </si>
@@ -129,73 +129,76 @@
     <t>Trainer</t>
   </si>
   <si>
-    <t>Srishti Sharma</t>
-  </si>
-  <si>
-    <t>Narendra Reddy Bareddy</t>
-  </si>
-  <si>
-    <t>Sushant Miglani</t>
-  </si>
-  <si>
-    <t>S Priyadharshini</t>
-  </si>
-  <si>
-    <t>Vaibhav Rudre</t>
-  </si>
-  <si>
-    <t>Arindam Biswas</t>
-  </si>
-  <si>
-    <t>Natwar Kumar</t>
-  </si>
-  <si>
-    <t>Mayank Gupta</t>
-  </si>
-  <si>
-    <t>Sumairafarhat Inamdar</t>
-  </si>
-  <si>
-    <t>Manjunath Kammar</t>
-  </si>
-  <si>
-    <t>Tamilarasu S</t>
-  </si>
-  <si>
-    <t>Heena</t>
-  </si>
-  <si>
-    <t>Mule Siva Reddy</t>
-  </si>
-  <si>
-    <t>Aravind Sekhar</t>
-  </si>
-  <si>
-    <t>Mukesh Dasari</t>
-  </si>
-  <si>
-    <t>Sreerag P S</t>
-  </si>
-  <si>
-    <t>Sweety</t>
-  </si>
-  <si>
-    <t>Shekinah Tekumudi</t>
-  </si>
-  <si>
-    <t>Sudhakar Mandati</t>
-  </si>
-  <si>
-    <t>Guddu Kumar</t>
-  </si>
-  <si>
-    <t>Mansi Gupta</t>
-  </si>
-  <si>
-    <t>Nidhi Shukla</t>
-  </si>
-  <si>
-    <t>Aditya Armarkar</t>
+    <t>Alok Mourya</t>
+  </si>
+  <si>
+    <t>Ranganath Anagha</t>
+  </si>
+  <si>
+    <t>Dinesh Subramaniam</t>
+  </si>
+  <si>
+    <t>Gaurav Bhasin</t>
+  </si>
+  <si>
+    <t>Jyothi</t>
+  </si>
+  <si>
+    <t>Lingaraj Sahoo</t>
+  </si>
+  <si>
+    <t>Manikanandan Duraiswamy</t>
+  </si>
+  <si>
+    <t>Manushi Jani</t>
+  </si>
+  <si>
+    <t>Nrendra Reddy Bareddy</t>
+  </si>
+  <si>
+    <t>P. S Manisha</t>
+  </si>
+  <si>
+    <t>Prabhakar Ramachandran</t>
+  </si>
+  <si>
+    <t>Pramod Kumar</t>
+  </si>
+  <si>
+    <t>Priyanka B</t>
+  </si>
+  <si>
+    <t>Priyanka R</t>
+  </si>
+  <si>
+    <t>Rohit Binani</t>
+  </si>
+  <si>
+    <t>Santanu Benerjee</t>
+  </si>
+  <si>
+    <t>Saurabh Abhishek</t>
+  </si>
+  <si>
+    <t>Srivalli N</t>
+  </si>
+  <si>
+    <t>Sujay</t>
+  </si>
+  <si>
+    <t>Sumaira Farhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaibhav </t>
+  </si>
+  <si>
+    <t>Vijay Kumar</t>
+  </si>
+  <si>
+    <t>Vinoth Kumar</t>
+  </si>
+  <si>
+    <t>Vinuthana</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -283,12 +286,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,6 +317,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -319,6 +334,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,7 +640,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B4" sqref="B4:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1019,7 +1038,7 @@
       <c r="D23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1069,6 +1088,9 @@
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
